--- a/outputs/ML_Results/dist_commute/All_short_table.xlsx
+++ b/outputs/ML_Results/dist_commute/All_short_table.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\projects\sufficcs_mobility\outputs\ML_Results\dist_commute\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E4C6A736-B84D-4237-ACA1-F0EEED7CC1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7C16B1-4A8E-47FE-AD78-8EE222648F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_short" sheetId="1" r:id="rId1"/>
-    <sheet name="table" sheetId="2" r:id="rId2"/>
+    <sheet name="All_short_table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="34">
   <si>
     <t>city</t>
   </si>
@@ -56,25 +56,25 @@
     <t>UrbPopDensity_res</t>
   </si>
   <si>
+    <t>IntersecDensity_res</t>
+  </si>
+  <si>
+    <t>street_length_res</t>
+  </si>
+  <si>
+    <t>LU_UrbFab_res</t>
+  </si>
+  <si>
+    <t>LU_Comm_res</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
     <t>UrbBuildDensity_res</t>
-  </si>
-  <si>
-    <t>IntersecDensity_res</t>
-  </si>
-  <si>
-    <t>street_length_res</t>
-  </si>
-  <si>
-    <t>LU_UrbFab_res</t>
-  </si>
-  <si>
-    <t>LU_Comm_res</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>Madrid</t>
   </si>
   <si>
     <t>Wien</t>
@@ -128,10 +128,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -618,15 +619,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -672,18 +675,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -992,16 +984,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57:C67"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1014,7 +1006,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1026,10 +1018,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>-1302.6107607015099</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4.7644910236002801E-28</v>
+        <v>-1591.17886290396</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1.07696852007338E-38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1040,10 +1032,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>-23.702014775254501</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3.0808102683738899E-5</v>
+        <v>-26.1353864802789</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1.0854605727866201E-5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1053,8 +1045,11 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>0.36430284074714397</v>
+      <c r="C4">
+        <v>-50.554333578392402</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.361514025847122</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1065,10 +1060,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>656.25990420993105</v>
-      </c>
-      <c r="D5" s="1">
-        <v>9.1968203478980895E-189</v>
+        <v>633.39849036414296</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1.12642700962958E-160</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1079,10 +1074,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>93.062793830771597</v>
-      </c>
-      <c r="D6">
-        <v>2.7465825209252E-2</v>
+        <v>62.601980111076998</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.19586401202529799</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1092,19 +1087,11 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
-        <v>0.21850519350723299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>0.67956121554528104</v>
+      <c r="C7">
+        <v>-3.11753041989971</v>
+      </c>
+      <c r="D7" s="8">
+        <v>6.9854631043207896E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1112,13 +1099,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>-18.152216175979301</v>
-      </c>
-      <c r="D9">
-        <v>2.9425173449926501E-2</v>
+        <v>-24.067407474051102</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2.196163291853E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1126,13 +1113,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>-8.7130150245613898</v>
-      </c>
-      <c r="D10">
-        <v>7.9809479951303594E-2</v>
+        <v>-10.3438750261435</v>
+      </c>
+      <c r="D10" s="8">
+        <v>4.2973073108664397E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1140,10 +1127,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>0.79724666359132401</v>
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>0.13657239452151701</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.74563616932186205</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1151,291 +1141,301 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>0.64513814659339697</v>
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>-1.9071759857630299</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.56877840813881198</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13">
-        <v>-1280.1149676493401</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.0877615879117699E-26</v>
+        <v>-2067.8681339428399</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2.29228193415494E-49</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14">
-        <v>-11.2170486310351</v>
-      </c>
-      <c r="D14">
-        <v>4.7333732184737999E-2</v>
+        <v>-12.049628364867001</v>
+      </c>
+      <c r="D14" s="8">
+        <v>6.7468756980785097E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="D15">
-        <v>0.66625438546856697</v>
+      <c r="C15">
+        <v>19.305857785985602</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.68595522547868704</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16">
-        <v>412.57493340971399</v>
-      </c>
-      <c r="D16" s="1">
-        <v>5.5539936763376896E-69</v>
+        <v>344.04416070126598</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2.99473730338815E-37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17">
-        <v>202.12700103717799</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2.0350413602329501E-9</v>
+        <v>234.784633719901</v>
+      </c>
+      <c r="D17" s="8">
+        <v>5.3832237430390604E-9</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="D18">
-        <v>0.637449466091351</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19">
-        <v>0.29555779492335899</v>
+      <c r="C18">
+        <v>-7.0554670996289995E-2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.84161418815884803</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <v>0.30626486774325601</v>
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>-1.90619839211923</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.66836959988619005</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21">
-        <v>0.33856045546392799</v>
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>-9.5714364111583699</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.33683160548297297</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22">
-        <v>0.105472762488382</v>
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>9.15826671682564</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.215064734134083</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23">
-        <v>0.15764038934347199</v>
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>-1.1235415577121399</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.73447047114459296</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24">
-        <v>-1005.7942052482</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1.1104043783092999E-42</v>
+        <v>-1010.73673715021</v>
+      </c>
+      <c r="D24" s="8">
+        <v>3.7742514535749697E-43</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25">
-        <v>-18.8713294737925</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2.9447937782064098E-9</v>
+        <v>-21.5550429545385</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1.1928857050138099E-11</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="D26">
-        <v>0.66393980579327305</v>
+      <c r="C26">
+        <v>-11.213531106476999</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0.72294949906260397</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27">
-        <v>341.272717479508</v>
-      </c>
-      <c r="D27">
+        <v>338.09786070115598</v>
+      </c>
+      <c r="D27" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
       <c r="C28">
-        <v>154.293027264492</v>
-      </c>
-      <c r="D28" s="1">
-        <v>4.4401295850442601E-21</v>
+        <v>136.524189018985</v>
+      </c>
+      <c r="D28" s="8">
+        <v>7.2936811644457905E-17</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29">
-        <v>3.3211536965312399E-2</v>
-      </c>
-      <c r="D29" s="1">
-        <v>7.01194467615209E-9</v>
+        <v>-0.53817906886069999</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0.26151769702189998</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
         <v>17</v>
       </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30">
-        <v>0.78895761730449099</v>
+      <c r="C30">
+        <v>-1.7565467497305101</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.53951855884098598</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31">
-        <v>-9.4504517217118096</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1.6013107537735001E-6</v>
+        <v>-10.4792515907483</v>
+      </c>
+      <c r="D31" s="8">
+        <v>8.9738377588622396E-8</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32">
-        <v>8.5367684218384507</v>
-      </c>
-      <c r="D32">
-        <v>3.9966380972355602E-2</v>
+        <v>10.995264567845499</v>
+      </c>
+      <c r="D32" s="8">
+        <v>7.0730619834367004E-3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33">
-        <v>-38.481115969095498</v>
-      </c>
-      <c r="D33" s="1">
-        <v>4.5367622869787001E-36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34">
-        <v>-21.358712311610699</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1.8031473387765901E-5</v>
+        <v>-1.88393725747691</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0.52767922765999897</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1446,10 +1446,10 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <v>-1615.68161824197</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1.28572572344804E-8</v>
+        <v>-1905.5377978740901</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1.2841701650568101E-9</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1459,8 +1459,11 @@
       <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="D36">
-        <v>0.747845795409943</v>
+      <c r="C36">
+        <v>-1.58079928301545</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0.72054550447233601</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1470,8 +1473,11 @@
       <c r="B37" t="s">
         <v>7</v>
       </c>
-      <c r="D37">
-        <v>0.40604537184280598</v>
+      <c r="C37">
+        <v>-29.852207195476701</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0.745094296819102</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1482,10 +1488,10 @@
         <v>8</v>
       </c>
       <c r="C38">
-        <v>776.88772089853796</v>
-      </c>
-      <c r="D38" s="1">
-        <v>7.5353729201029196E-20</v>
+        <v>696.81026925376</v>
+      </c>
+      <c r="D38" s="8">
+        <v>5.8171985006832703E-16</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1496,10 +1502,10 @@
         <v>9</v>
       </c>
       <c r="C39">
-        <v>-393.87212918816402</v>
-      </c>
-      <c r="D39" s="1">
-        <v>8.9050613762832302E-5</v>
+        <v>-186.93100863536901</v>
+      </c>
+      <c r="D39" s="8">
+        <v>5.1041699291345201E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1509,8 +1515,11 @@
       <c r="B40" t="s">
         <v>10</v>
       </c>
-      <c r="D40">
-        <v>0.20967726266737699</v>
+      <c r="C40">
+        <v>-6.8337016311536196</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0.11527761320206199</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1518,21 +1527,13 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41">
-        <v>0.64618080213710705</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42">
-        <v>0.16191884566950901</v>
+        <v>17</v>
+      </c>
+      <c r="C41">
+        <v>5.5593564977495E-2</v>
+      </c>
+      <c r="D41" s="8">
+        <v>0.74796288929858501</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1540,24 +1541,13 @@
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43">
-        <v>0.30893413622590499</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44">
-        <v>-57.544550030515197</v>
-      </c>
-      <c r="D44">
-        <v>2.3065696928081E-3</v>
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>9.6510073169670996</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0.375311666627</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1565,13 +1555,13 @@
         <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45">
-        <v>-40.318422527167598</v>
-      </c>
-      <c r="D45">
-        <v>6.7852040195096996E-2</v>
+        <v>-8.7222368312406697</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0.64503183654922203</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1582,10 +1572,10 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>-1260.3880367894401</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1.25629245634656E-60</v>
+        <v>-1257.3959091812901</v>
+      </c>
+      <c r="D46" s="8">
+        <v>4.1149228821435403E-60</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1596,10 +1586,10 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>-31.3342387463573</v>
-      </c>
-      <c r="D47" s="1">
-        <v>6.2171125474547605E-20</v>
+        <v>-30.977601921614699</v>
+      </c>
+      <c r="D47" s="8">
+        <v>2.1542581503413601E-19</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1610,10 +1600,10 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>88.574781749352695</v>
-      </c>
-      <c r="D48">
-        <v>3.8644991451260002E-3</v>
+        <v>98.229315307366605</v>
+      </c>
+      <c r="D48" s="8">
+        <v>2.4054072490935999E-3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1624,10 +1614,10 @@
         <v>8</v>
       </c>
       <c r="C49">
-        <v>451.69614275324398</v>
-      </c>
-      <c r="D49" s="1">
-        <v>8.9461441374189604E-284</v>
+        <v>488.82461058220503</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1638,10 +1628,10 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <v>211.62238274036699</v>
-      </c>
-      <c r="D50" s="1">
-        <v>5.6310507041119804E-21</v>
+        <v>226.95778655099099</v>
+      </c>
+      <c r="D50" s="8">
+        <v>7.94746747843073E-25</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1652,10 +1642,10 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>-2.8773071026817001E-2</v>
-      </c>
-      <c r="D51">
-        <v>2.4437723736535601E-2</v>
+        <v>-4.7676157036546698</v>
+      </c>
+      <c r="D51" s="8">
+        <v>2.6330201733269998E-4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1663,27 +1653,13 @@
         <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C52">
-        <v>37.437862338931097</v>
-      </c>
-      <c r="D52">
-        <v>2.1038403817852099E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53">
-        <v>-24.790080464911899</v>
-      </c>
-      <c r="D53" s="1">
-        <v>4.2057349042180601E-19</v>
+        <v>-6.4720468460698797</v>
+      </c>
+      <c r="D52" s="8">
+        <v>0.494410332085995</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1691,13 +1667,13 @@
         <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C54">
-        <v>8.17297679558963</v>
-      </c>
-      <c r="D54">
-        <v>4.6367150297691997E-3</v>
+        <v>20.794795161608</v>
+      </c>
+      <c r="D54" s="8">
+        <v>1.60860253892378E-21</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1705,10 +1681,13 @@
         <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55">
-        <v>0.54046979846588905</v>
+        <v>13</v>
+      </c>
+      <c r="C55">
+        <v>-9.0303733137141506</v>
+      </c>
+      <c r="D55" s="8">
+        <v>5.7911243273026996E-3</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1716,13 +1695,13 @@
         <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56">
-        <v>-18.563972804234702</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1.04418412735723E-5</v>
+        <v>-19.391256807750601</v>
+      </c>
+      <c r="D56" s="8">
+        <v>1.14410752185579E-6</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1733,10 +1712,10 @@
         <v>5</v>
       </c>
       <c r="C57">
-        <v>-1337.96127098496</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1.88655169314102E-12</v>
+        <v>-1996.0086936616201</v>
+      </c>
+      <c r="D57" s="8">
+        <v>2.61098443240119E-21</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1747,10 +1726,10 @@
         <v>6</v>
       </c>
       <c r="C58">
-        <v>-32.259607781501202</v>
-      </c>
-      <c r="D58">
-        <v>1.093622539825E-4</v>
+        <v>-49.055790510001401</v>
+      </c>
+      <c r="D58" s="8">
+        <v>1.5318433471917201E-6</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1760,8 +1739,11 @@
       <c r="B59" t="s">
         <v>7</v>
       </c>
-      <c r="D59">
-        <v>0.66867360991963298</v>
+      <c r="C59">
+        <v>53.004189338145402</v>
+      </c>
+      <c r="D59" s="8">
+        <v>0.57243784854913304</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1772,10 +1754,10 @@
         <v>8</v>
       </c>
       <c r="C60">
-        <v>471.08208447349301</v>
-      </c>
-      <c r="D60" s="1">
-        <v>6.4330128893876299E-23</v>
+        <v>486.89464929447797</v>
+      </c>
+      <c r="D60" s="8">
+        <v>7.1007809559505699E-23</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1786,10 +1768,10 @@
         <v>9</v>
       </c>
       <c r="C61">
-        <v>203.91619793195801</v>
-      </c>
-      <c r="D61">
-        <v>4.4646720659404998E-3</v>
+        <v>191.75142745622</v>
+      </c>
+      <c r="D61" s="8">
+        <v>2.1151723331065801E-2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1800,10 +1782,10 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>0.22841644947983</v>
-      </c>
-      <c r="D62" s="1">
-        <v>3.0149475555221001E-6</v>
+        <v>10.418662977612099</v>
+      </c>
+      <c r="D62" s="8">
+        <v>1.26398372871239E-2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1811,21 +1793,13 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63">
-        <v>0.60468641965949399</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64">
-        <v>0.102398044366666</v>
+        <v>17</v>
+      </c>
+      <c r="C63">
+        <v>-7.0652390595288299</v>
+      </c>
+      <c r="D63" s="8">
+        <v>0.62691740109885796</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1833,10 +1807,13 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65">
-        <v>0.62302030661601704</v>
+        <v>12</v>
+      </c>
+      <c r="C65">
+        <v>10.3735779428408</v>
+      </c>
+      <c r="D65" s="8">
+        <v>0.14733597272556601</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1844,13 +1821,7 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66">
-        <v>-39.7208272620529</v>
-      </c>
-      <c r="D66">
-        <v>2.0181189431340001E-4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1858,272 +1829,321 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C67">
-        <v>-22.209191595353101</v>
-      </c>
-      <c r="D67">
-        <v>3.1350595780298501E-2</v>
+        <v>-24.244234862084401</v>
+      </c>
+      <c r="D67" s="8">
+        <v>4.6057132535379602E-2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>0.05</formula>
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G13"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5">
-        <v>-1302.6107607015099</v>
-      </c>
-      <c r="D3" s="5">
-        <v>-1280.1149676493401</v>
-      </c>
-      <c r="E3" s="5">
-        <v>-1005.7942052482</v>
-      </c>
-      <c r="F3" s="5">
-        <v>-1615.68161824197</v>
-      </c>
-      <c r="G3" s="5">
-        <v>-1337.96127098496</v>
-      </c>
-      <c r="H3" s="5">
-        <v>-1260.3880367894401</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="3">
+        <v>-1591.17886290396</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-2067.8681339428399</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-1010.73673715021</v>
+      </c>
+      <c r="F3" s="3">
+        <v>-1905.5377978740901</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-1996.0086936616201</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-1257.3959091812901</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6">
-        <v>-23.702014775254501</v>
-      </c>
-      <c r="D4" s="6">
-        <v>-11.2170486310351</v>
-      </c>
-      <c r="E4" s="6">
-        <v>-18.8713294737925</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6">
-        <v>-32.259607781501202</v>
-      </c>
-      <c r="H4" s="6">
-        <v>-31.3342387463573</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="4">
+        <v>-26.1353864802789</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-12.049628364867001</v>
+      </c>
+      <c r="E4" s="4">
+        <v>-21.5550429545385</v>
+      </c>
+      <c r="F4" s="7">
+        <v>-1.58079928301545</v>
+      </c>
+      <c r="G4" s="4">
+        <v>-49.055790510001401</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-30.977601921614699</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6">
-        <v>88.574781749352695</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="4">
+        <v>-50.554333578392402</v>
+      </c>
+      <c r="D5" s="4">
+        <v>19.305857785985602</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-11.213531106476999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>-29.852207195476701</v>
+      </c>
+      <c r="G5" s="4">
+        <v>53.004189338145402</v>
+      </c>
+      <c r="H5" s="4">
+        <v>98.229315307366605</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6">
-        <v>656.25990420993105</v>
-      </c>
-      <c r="D6" s="6">
-        <v>412.57493340971399</v>
-      </c>
-      <c r="E6" s="6">
-        <v>341.272717479508</v>
-      </c>
-      <c r="F6" s="6">
-        <v>776.88772089853796</v>
-      </c>
-      <c r="G6" s="6">
-        <v>471.08208447349301</v>
-      </c>
-      <c r="H6" s="6">
-        <v>451.69614275324398</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="4">
+        <v>633.39849036414296</v>
+      </c>
+      <c r="D6" s="4">
+        <v>344.04416070126598</v>
+      </c>
+      <c r="E6" s="4">
+        <v>338.09786070115598</v>
+      </c>
+      <c r="F6" s="4">
+        <v>696.81026925376</v>
+      </c>
+      <c r="G6" s="4">
+        <v>486.89464929447797</v>
+      </c>
+      <c r="H6" s="4">
+        <v>488.82461058220503</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="6">
-        <v>93.062793830771597</v>
-      </c>
-      <c r="D7" s="6">
-        <v>202.12700103717799</v>
-      </c>
-      <c r="E7" s="6">
-        <v>154.293027264492</v>
-      </c>
-      <c r="F7" s="6">
-        <v>-393.87212918816402</v>
-      </c>
-      <c r="G7" s="6">
-        <v>203.91619793195801</v>
-      </c>
-      <c r="H7" s="6">
-        <v>211.62238274036699</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="4">
+        <v>62.601980111076998</v>
+      </c>
+      <c r="D7" s="4">
+        <v>234.784633719901</v>
+      </c>
+      <c r="E7" s="3">
+        <v>136.524189018985</v>
+      </c>
+      <c r="F7" s="4">
+        <v>-186.93100863536901</v>
+      </c>
+      <c r="G7" s="4">
+        <v>191.75142745622</v>
+      </c>
+      <c r="H7" s="4">
+        <v>226.95778655099099</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7">
-        <v>3.3211536965312399E-2</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
-        <v>0.22841644947983</v>
-      </c>
-      <c r="H8" s="7">
-        <v>-2.8773071026817001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="5">
+        <v>-3.11753041989971</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-7.0554670996289995E-2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>-0.53817906886069999</v>
+      </c>
+      <c r="F8" s="5">
+        <v>-6.8337016311536196</v>
+      </c>
+      <c r="G8" s="5">
+        <v>10.418662977612099</v>
+      </c>
+      <c r="H8" s="5">
+        <v>-4.7676157036546698</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6">
-        <v>37.437862338931097</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
+        <v>-1.7565467497305101</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5.5593564977495E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>-7.0652390595288299</v>
+      </c>
+      <c r="H9" s="7">
+        <v>-6.4720468460698797</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="6">
-        <v>-18.152216175979301</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6">
-        <v>-9.4504517217118096</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6">
-        <v>-24.790080464911899</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="4">
+        <v>-24.067407474051102</v>
+      </c>
+      <c r="D10" s="7">
+        <v>-1.90619839211923</v>
+      </c>
+      <c r="E10" s="7">
+        <v>-10.4792515907483</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4">
-        <v>-8.7130150245613898</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6">
-        <v>8.5367684218384507</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6">
-        <v>8.17297679558963</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="6">
+        <v>-10.3438750261435</v>
+      </c>
+      <c r="D11" s="7">
+        <v>-9.5714364111583699</v>
+      </c>
+      <c r="E11" s="7">
+        <v>10.995264567845499</v>
+      </c>
+      <c r="F11" s="7">
+        <v>9.6510073169670996</v>
+      </c>
+      <c r="G11" s="7">
+        <v>10.3735779428408</v>
+      </c>
+      <c r="H11" s="7">
+        <v>20.794795161608</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
-        <v>-38.481115969095498</v>
-      </c>
-      <c r="F12" s="6">
-        <v>-57.544550030515197</v>
-      </c>
-      <c r="G12" s="6">
-        <v>-39.7208272620529</v>
-      </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="7">
+        <v>0.13657239452151701</v>
+      </c>
+      <c r="D12" s="7">
+        <v>9.15826671682564</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="7">
+        <v>-9.0303733137141506</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
-        <v>-21.358712311610699</v>
-      </c>
-      <c r="F13" s="4">
-        <v>-40.318422527167598</v>
-      </c>
-      <c r="G13" s="6">
-        <v>-22.209191595353101</v>
-      </c>
-      <c r="H13" s="6">
-        <v>-18.563972804234702</v>
-      </c>
+      <c r="C13" s="7">
+        <v>-1.9071759857630299</v>
+      </c>
+      <c r="D13" s="7">
+        <v>-1.1235415577121399</v>
+      </c>
+      <c r="E13" s="7">
+        <v>-1.88393725747691</v>
+      </c>
+      <c r="F13" s="9">
+        <v>-8.7222368312406697</v>
+      </c>
+      <c r="G13" s="4">
+        <v>-24.244234862084401</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-19.391256807750601</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/outputs/ML_Results/dist_commute/All_short_table.xlsx
+++ b/outputs/ML_Results/dist_commute/All_short_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\projects\sufficcs_mobility\outputs\ML_Results\dist_commute\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7C16B1-4A8E-47FE-AD78-8EE222648F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDBAB3F-6CAB-45FB-8C07-BF7FE90C3F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_short" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="34">
   <si>
     <t>city</t>
   </si>
@@ -689,9 +689,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -729,7 +729,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -835,7 +835,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -977,7 +977,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -987,13 +987,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:D67"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57:C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="8.88671875" style="8"/>
+    <col min="4" max="4" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1006,7 +1006,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1020,8 +1020,8 @@
       <c r="C2">
         <v>-1591.17886290396</v>
       </c>
-      <c r="D2" s="8">
-        <v>1.07696852007338E-38</v>
+      <c r="D2" s="5">
+        <v>1.07696852007477E-38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1032,10 +1032,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>-26.1353864802789</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1.0854605727866201E-5</v>
+        <v>-26.1353864802877</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1.0854605727801E-5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1046,10 +1046,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>-50.554333578392402</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.361514025847122</v>
+        <v>-50.554333578426998</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.36151402584682901</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1060,10 +1060,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>633.39849036414296</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1.12642700962958E-160</v>
+        <v>633.39849036421595</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1.1264270093856799E-160</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1074,10 +1074,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>62.601980111076998</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.19586401202529799</v>
+        <v>62.601980111142701</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.19586401202480899</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1088,10 +1088,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>-3.11753041989971</v>
-      </c>
-      <c r="D7" s="8">
-        <v>6.9854631043207896E-2</v>
+        <v>-3.1175304198876099</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6.9854631044799095E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1102,10 +1102,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>-24.067407474051102</v>
-      </c>
-      <c r="D9" s="8">
-        <v>2.196163291853E-2</v>
+        <v>-24.067407474049102</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.19616329185429E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1116,10 +1116,10 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>-10.3438750261435</v>
-      </c>
-      <c r="D10" s="8">
-        <v>4.2973073108664397E-2</v>
+        <v>-10.3438750261433</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4.2973073108665799E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1130,10 +1130,10 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>0.13657239452151701</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0.74563616932186205</v>
+        <v>0.13657239452282499</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.74563616932187704</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1144,10 +1144,10 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>-1.9071759857630299</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0.56877840813881198</v>
+        <v>-1.90717598576162</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.56877840813884395</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1158,10 +1158,10 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>-2067.8681339428399</v>
-      </c>
-      <c r="D13" s="8">
-        <v>2.29228193415494E-49</v>
+        <v>-2067.8681339428499</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2.2922819341483102E-49</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1172,10 +1172,10 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>-12.049628364867001</v>
-      </c>
-      <c r="D14" s="8">
-        <v>6.7468756980785097E-2</v>
+        <v>-12.049628364867701</v>
+      </c>
+      <c r="D14" s="5">
+        <v>6.7468756980810493E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1186,10 +1186,10 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>19.305857785985602</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0.68595522547868704</v>
+        <v>19.305857785945999</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.68595522547930599</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1200,10 +1200,10 @@
         <v>8</v>
       </c>
       <c r="C16">
-        <v>344.04416070126598</v>
-      </c>
-      <c r="D16" s="8">
-        <v>2.99473730338815E-37</v>
+        <v>344.04416070124</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2.9947373042604598E-37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1214,10 +1214,10 @@
         <v>9</v>
       </c>
       <c r="C17">
-        <v>234.784633719901</v>
-      </c>
-      <c r="D17" s="8">
-        <v>5.3832237430390604E-9</v>
+        <v>234.78463371979001</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5.3832237429316502E-9</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1228,10 +1228,10 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>-7.0554670996289995E-2</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0.84161418815884803</v>
+        <v>-7.05546710025486E-2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.84161418816325295</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1242,10 +1242,10 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>-1.90619839211923</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0.66836959988619005</v>
+        <v>-1.9061983921189101</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.66836959988621802</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1256,10 +1256,10 @@
         <v>12</v>
       </c>
       <c r="C21">
-        <v>-9.5714364111583699</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0.33683160548297297</v>
+        <v>-9.5714364111576398</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.336831605483004</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1270,9 +1270,9 @@
         <v>13</v>
       </c>
       <c r="C22">
-        <v>9.15826671682564</v>
-      </c>
-      <c r="D22" s="8">
+        <v>9.1582667168256204</v>
+      </c>
+      <c r="D22" s="5">
         <v>0.215064734134083</v>
       </c>
     </row>
@@ -1284,10 +1284,10 @@
         <v>14</v>
       </c>
       <c r="C23">
-        <v>-1.1235415577121399</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0.73447047114459296</v>
+        <v>-1.1235415577119601</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.73447047114459496</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1298,10 +1298,10 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>-1010.73673715021</v>
-      </c>
-      <c r="D24" s="8">
-        <v>3.7742514535749697E-43</v>
+        <v>-1016.45161775588</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2.68935405368566E-45</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1312,10 +1312,10 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>-21.5550429545385</v>
-      </c>
-      <c r="D25" s="8">
-        <v>1.1928857050138099E-11</v>
+        <v>-21.506325724526501</v>
+      </c>
+      <c r="D25" s="5">
+        <v>3.0107990055422202E-11</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1326,10 +1326,10 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>-11.213531106476999</v>
-      </c>
-      <c r="D26" s="8">
-        <v>0.72294949906260397</v>
+        <v>-11.439145975455601</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.68554233931517095</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1340,9 +1340,9 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <v>338.09786070115598</v>
-      </c>
-      <c r="D27" s="8">
+        <v>338.80387842197899</v>
+      </c>
+      <c r="D27" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1354,10 +1354,10 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>136.524189018985</v>
-      </c>
-      <c r="D28" s="8">
-        <v>7.2936811644457905E-17</v>
+        <v>138.12012873273599</v>
+      </c>
+      <c r="D28" s="5">
+        <v>8.5148978932613102E-17</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1368,10 +1368,10 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>-0.53817906886069999</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0.26151769702189998</v>
+        <v>-0.57174575654917004</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.25922476720225501</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1382,10 +1382,10 @@
         <v>17</v>
       </c>
       <c r="C30">
-        <v>-1.7565467497305101</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0.53951855884098598</v>
+        <v>-0.73748816496867398</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.62570015328934603</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1396,10 +1396,10 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>-10.4792515907483</v>
-      </c>
-      <c r="D31" s="8">
-        <v>8.9738377588622396E-8</v>
+        <v>-10.3203795708105</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2.1583853231814301E-7</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1410,18 +1410,10 @@
         <v>12</v>
       </c>
       <c r="C32">
-        <v>10.995264567845499</v>
-      </c>
-      <c r="D32" s="8">
-        <v>7.0730619834367004E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
+        <v>11.058698305867001</v>
+      </c>
+      <c r="D32" s="5">
+        <v>5.6577014206325004E-3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1432,10 +1424,10 @@
         <v>14</v>
       </c>
       <c r="C34">
-        <v>-1.88393725747691</v>
-      </c>
-      <c r="D34" s="8">
-        <v>0.52767922765999897</v>
+        <v>-1.54797034005221</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.53246845446602498</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1446,10 +1438,10 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <v>-1905.5377978740901</v>
-      </c>
-      <c r="D35" s="8">
-        <v>1.2841701650568101E-9</v>
+        <v>-1905.5377978809599</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1.28417016104724E-9</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1460,10 +1452,10 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <v>-1.58079928301545</v>
-      </c>
-      <c r="D36" s="8">
-        <v>0.72054550447233601</v>
+        <v>-1.58079928412758</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.720545504494985</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1474,10 +1466,10 @@
         <v>7</v>
       </c>
       <c r="C37">
-        <v>-29.852207195476701</v>
-      </c>
-      <c r="D37" s="8">
-        <v>0.745094296819102</v>
+        <v>-29.852207223855501</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.74509429673570204</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1488,10 +1480,10 @@
         <v>8</v>
       </c>
       <c r="C38">
-        <v>696.81026925376</v>
-      </c>
-      <c r="D38" s="8">
-        <v>5.8171985006832703E-16</v>
+        <v>696.81026926938603</v>
+      </c>
+      <c r="D38" s="5">
+        <v>5.8171985070106901E-16</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1502,10 +1494,10 @@
         <v>9</v>
       </c>
       <c r="C39">
-        <v>-186.93100863536901</v>
-      </c>
-      <c r="D39" s="8">
-        <v>5.1041699291345201E-2</v>
+        <v>-186.93100865463001</v>
+      </c>
+      <c r="D39" s="5">
+        <v>5.1041699244291597E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1516,10 +1508,10 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>-6.8337016311536196</v>
-      </c>
-      <c r="D40" s="8">
-        <v>0.11527761320206199</v>
+        <v>-6.8337016344457</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0.115277613033176</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1530,10 +1522,10 @@
         <v>17</v>
       </c>
       <c r="C41">
-        <v>5.5593564977495E-2</v>
-      </c>
-      <c r="D41" s="8">
-        <v>0.74796288929858501</v>
+        <v>5.5593593699131298E-2</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.74796288895128704</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1544,10 +1536,10 @@
         <v>12</v>
       </c>
       <c r="C43">
-        <v>9.6510073169670996</v>
-      </c>
-      <c r="D43" s="8">
-        <v>0.375311666627</v>
+        <v>9.6510073169665294</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.37531166662702797</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1558,10 +1550,10 @@
         <v>14</v>
       </c>
       <c r="C45">
-        <v>-8.7222368312406697</v>
-      </c>
-      <c r="D45" s="8">
-        <v>0.64503183654922203</v>
+        <v>-8.7222368312389094</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.64503183654927099</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1572,10 +1564,10 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>-1257.3959091812901</v>
-      </c>
-      <c r="D46" s="8">
-        <v>4.1149228821435403E-60</v>
+        <v>-1257.3959091826</v>
+      </c>
+      <c r="D46" s="5">
+        <v>4.11492288133637E-60</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1586,10 +1578,10 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>-30.977601921614699</v>
-      </c>
-      <c r="D47" s="8">
-        <v>2.1542581503413601E-19</v>
+        <v>-30.977601921991099</v>
+      </c>
+      <c r="D47" s="5">
+        <v>2.1542581573885999E-19</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1600,10 +1592,10 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>98.229315307366605</v>
-      </c>
-      <c r="D48" s="8">
-        <v>2.4054072490935999E-3</v>
+        <v>98.229315309227701</v>
+      </c>
+      <c r="D48" s="5">
+        <v>2.4054072491478001E-3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1614,9 +1606,9 @@
         <v>8</v>
       </c>
       <c r="C49">
-        <v>488.82461058220503</v>
-      </c>
-      <c r="D49" s="8">
+        <v>488.82461058619799</v>
+      </c>
+      <c r="D49" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1628,10 +1620,10 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <v>226.95778655099099</v>
-      </c>
-      <c r="D50" s="8">
-        <v>7.94746747843073E-25</v>
+        <v>226.957786546731</v>
+      </c>
+      <c r="D50" s="5">
+        <v>7.9474674608948099E-25</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1642,10 +1634,10 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>-4.7676157036546698</v>
-      </c>
-      <c r="D51" s="8">
-        <v>2.6330201733269998E-4</v>
+        <v>-4.7676157037566798</v>
+      </c>
+      <c r="D51" s="5">
+        <v>2.6330201709730001E-4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1656,10 +1648,10 @@
         <v>17</v>
       </c>
       <c r="C52">
-        <v>-6.4720468460698797</v>
-      </c>
-      <c r="D52" s="8">
-        <v>0.494410332085995</v>
+        <v>-6.4720467982065202</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0.49441033278176</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1670,10 +1662,10 @@
         <v>12</v>
       </c>
       <c r="C54">
-        <v>20.794795161608</v>
-      </c>
-      <c r="D54" s="8">
-        <v>1.60860253892378E-21</v>
+        <v>20.7947951616067</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1.60860253893343E-21</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1684,10 +1676,10 @@
         <v>13</v>
       </c>
       <c r="C55">
-        <v>-9.0303733137141506</v>
-      </c>
-      <c r="D55" s="8">
-        <v>5.7911243273026996E-3</v>
+        <v>-9.0303733137144899</v>
+      </c>
+      <c r="D55" s="5">
+        <v>5.7911243273002996E-3</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1698,10 +1690,10 @@
         <v>14</v>
       </c>
       <c r="C56">
-        <v>-19.391256807750601</v>
-      </c>
-      <c r="D56" s="8">
-        <v>1.14410752185579E-6</v>
+        <v>-19.391256807751699</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1.1441075218541599E-6</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1712,10 +1704,10 @@
         <v>5</v>
       </c>
       <c r="C57">
-        <v>-1996.0086936616201</v>
-      </c>
-      <c r="D57" s="8">
-        <v>2.61098443240119E-21</v>
+        <v>-1996.0086936642001</v>
+      </c>
+      <c r="D57" s="5">
+        <v>2.6109844321296001E-21</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1726,10 +1718,10 @@
         <v>6</v>
       </c>
       <c r="C58">
-        <v>-49.055790510001401</v>
-      </c>
-      <c r="D58" s="8">
-        <v>1.5318433471917201E-6</v>
+        <v>-49.055790513009498</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1.5318433493931901E-6</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1740,10 +1732,10 @@
         <v>7</v>
       </c>
       <c r="C59">
-        <v>53.004189338145402</v>
-      </c>
-      <c r="D59" s="8">
-        <v>0.57243784854913304</v>
+        <v>53.004189335730402</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0.57243784858518998</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1754,10 +1746,10 @@
         <v>8</v>
       </c>
       <c r="C60">
-        <v>486.89464929447797</v>
-      </c>
-      <c r="D60" s="8">
-        <v>7.1007809559505699E-23</v>
+        <v>486.894649282621</v>
+      </c>
+      <c r="D60" s="5">
+        <v>7.1007809887951798E-23</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1768,10 +1760,10 @@
         <v>9</v>
       </c>
       <c r="C61">
-        <v>191.75142745622</v>
-      </c>
-      <c r="D61" s="8">
-        <v>2.1151723331065801E-2</v>
+        <v>191.751427517716</v>
+      </c>
+      <c r="D61" s="5">
+        <v>2.11517233026636E-2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1782,10 +1774,10 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>10.418662977612099</v>
-      </c>
-      <c r="D62" s="8">
-        <v>1.26398372871239E-2</v>
+        <v>10.418662974051699</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1.26398372906782E-2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1796,10 +1788,10 @@
         <v>17</v>
       </c>
       <c r="C63">
-        <v>-7.0652390595288299</v>
-      </c>
-      <c r="D63" s="8">
-        <v>0.62691740109885796</v>
+        <v>-7.0652390261196603</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0.62691740179560396</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1810,18 +1802,10 @@
         <v>12</v>
       </c>
       <c r="C65">
-        <v>10.3735779428408</v>
-      </c>
-      <c r="D65" s="8">
-        <v>0.14733597272556601</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66" t="s">
-        <v>13</v>
+        <v>10.3735779428391</v>
+      </c>
+      <c r="D65" s="5">
+        <v>0.14733597272563601</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1832,10 +1816,10 @@
         <v>14</v>
       </c>
       <c r="C67">
-        <v>-24.244234862084401</v>
-      </c>
-      <c r="D67" s="8">
-        <v>4.6057132535379602E-2</v>
+        <v>-24.2442348620853</v>
+      </c>
+      <c r="D67" s="5">
+        <v>4.6057132535370901E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1848,7 +1832,7 @@
   <dimension ref="B1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="G3" sqref="G3:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1894,19 +1878,19 @@
         <v>-1591.17886290396</v>
       </c>
       <c r="D3" s="3">
-        <v>-2067.8681339428399</v>
+        <v>-2067.8681339428499</v>
       </c>
       <c r="E3" s="3">
-        <v>-1010.73673715021</v>
+        <v>-1016.45161775588</v>
       </c>
       <c r="F3" s="3">
-        <v>-1905.5377978740901</v>
+        <v>-1905.5377978809599</v>
       </c>
       <c r="G3" s="3">
-        <v>-1996.0086936616201</v>
+        <v>-1996.0086936642001</v>
       </c>
       <c r="H3" s="3">
-        <v>-1257.3959091812901</v>
+        <v>-1257.3959091826</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -1916,22 +1900,22 @@
         <v>6</v>
       </c>
       <c r="C4" s="4">
-        <v>-26.1353864802789</v>
+        <v>-26.1353864802877</v>
       </c>
       <c r="D4" s="4">
-        <v>-12.049628364867001</v>
+        <v>-12.049628364867701</v>
       </c>
       <c r="E4" s="4">
-        <v>-21.5550429545385</v>
+        <v>-21.506325724526501</v>
       </c>
       <c r="F4" s="7">
-        <v>-1.58079928301545</v>
+        <v>-1.58079928412758</v>
       </c>
       <c r="G4" s="4">
-        <v>-49.055790510001401</v>
+        <v>-49.055790513009498</v>
       </c>
       <c r="H4" s="4">
-        <v>-30.977601921614699</v>
+        <v>-30.977601921991099</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1941,22 +1925,22 @@
         <v>25</v>
       </c>
       <c r="C5" s="4">
-        <v>-50.554333578392402</v>
+        <v>-50.554333578426998</v>
       </c>
       <c r="D5" s="4">
-        <v>19.305857785985602</v>
+        <v>19.305857785945999</v>
       </c>
       <c r="E5" s="4">
-        <v>-11.213531106476999</v>
+        <v>-11.439145975455601</v>
       </c>
       <c r="F5" s="4">
-        <v>-29.852207195476701</v>
+        <v>-29.852207223855501</v>
       </c>
       <c r="G5" s="4">
-        <v>53.004189338145402</v>
+        <v>53.004189335730402</v>
       </c>
       <c r="H5" s="4">
-        <v>98.229315307366605</v>
+        <v>98.229315309227701</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -1966,22 +1950,22 @@
         <v>26</v>
       </c>
       <c r="C6" s="4">
-        <v>633.39849036414296</v>
+        <v>633.39849036421595</v>
       </c>
       <c r="D6" s="4">
-        <v>344.04416070126598</v>
+        <v>344.04416070124</v>
       </c>
       <c r="E6" s="4">
-        <v>338.09786070115598</v>
+        <v>338.80387842197899</v>
       </c>
       <c r="F6" s="4">
-        <v>696.81026925376</v>
+        <v>696.81026926938603</v>
       </c>
       <c r="G6" s="4">
-        <v>486.89464929447797</v>
+        <v>486.894649282621</v>
       </c>
       <c r="H6" s="4">
-        <v>488.82461058220503</v>
+        <v>488.82461058619799</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -1991,22 +1975,22 @@
         <v>27</v>
       </c>
       <c r="C7" s="4">
-        <v>62.601980111076998</v>
+        <v>62.601980111142701</v>
       </c>
       <c r="D7" s="4">
-        <v>234.784633719901</v>
+        <v>234.78463371979001</v>
       </c>
       <c r="E7" s="3">
-        <v>136.524189018985</v>
+        <v>138.12012873273599</v>
       </c>
       <c r="F7" s="4">
-        <v>-186.93100863536901</v>
+        <v>-186.93100865463001</v>
       </c>
       <c r="G7" s="4">
-        <v>191.75142745622</v>
+        <v>191.751427517716</v>
       </c>
       <c r="H7" s="4">
-        <v>226.95778655099099</v>
+        <v>226.957786546731</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -2016,22 +2000,22 @@
         <v>28</v>
       </c>
       <c r="C8" s="5">
-        <v>-3.11753041989971</v>
+        <v>-3.1175304198876099</v>
       </c>
       <c r="D8" s="5">
-        <v>-7.0554670996289995E-2</v>
+        <v>-7.05546710025486E-2</v>
       </c>
       <c r="E8" s="5">
-        <v>-0.53817906886069999</v>
+        <v>-0.57174575654917004</v>
       </c>
       <c r="F8" s="5">
-        <v>-6.8337016311536196</v>
+        <v>-6.8337016344457</v>
       </c>
       <c r="G8" s="5">
-        <v>10.418662977612099</v>
+        <v>10.418662974051699</v>
       </c>
       <c r="H8" s="5">
-        <v>-4.7676157036546698</v>
+        <v>-4.7676157037566798</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -2043,16 +2027,16 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
-        <v>-1.7565467497305101</v>
+        <v>-0.73748816496867398</v>
       </c>
       <c r="F9" s="5">
-        <v>5.5593564977495E-2</v>
+        <v>5.5593593699131298E-2</v>
       </c>
       <c r="G9" s="5">
-        <v>-7.0652390595288299</v>
+        <v>-7.0652390261196603</v>
       </c>
       <c r="H9" s="7">
-        <v>-6.4720468460698797</v>
+        <v>-6.4720467982065202</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -2062,13 +2046,13 @@
         <v>30</v>
       </c>
       <c r="C10" s="4">
-        <v>-24.067407474051102</v>
+        <v>-24.067407474049102</v>
       </c>
       <c r="D10" s="7">
-        <v>-1.90619839211923</v>
+        <v>-1.9061983921189101</v>
       </c>
       <c r="E10" s="7">
-        <v>-10.4792515907483</v>
+        <v>-10.3203795708105</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -2081,22 +2065,22 @@
         <v>31</v>
       </c>
       <c r="C11" s="6">
-        <v>-10.3438750261435</v>
+        <v>-10.3438750261433</v>
       </c>
       <c r="D11" s="7">
-        <v>-9.5714364111583699</v>
+        <v>-9.5714364111576398</v>
       </c>
       <c r="E11" s="7">
-        <v>10.995264567845499</v>
+        <v>11.058698305867001</v>
       </c>
       <c r="F11" s="7">
-        <v>9.6510073169670996</v>
+        <v>9.6510073169665294</v>
       </c>
       <c r="G11" s="7">
-        <v>10.3735779428408</v>
+        <v>10.3735779428391</v>
       </c>
       <c r="H11" s="7">
-        <v>20.794795161608</v>
+        <v>20.7947951616067</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -2106,16 +2090,16 @@
         <v>32</v>
       </c>
       <c r="C12" s="7">
-        <v>0.13657239452151701</v>
+        <v>0.13657239452282499</v>
       </c>
       <c r="D12" s="7">
-        <v>9.15826671682564</v>
+        <v>9.1582667168256204</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4"/>
       <c r="H12" s="7">
-        <v>-9.0303733137141506</v>
+        <v>-9.0303733137144899</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -2125,22 +2109,22 @@
         <v>33</v>
       </c>
       <c r="C13" s="7">
-        <v>-1.9071759857630299</v>
+        <v>-1.90717598576162</v>
       </c>
       <c r="D13" s="7">
-        <v>-1.1235415577121399</v>
+        <v>-1.1235415577119601</v>
       </c>
       <c r="E13" s="7">
-        <v>-1.88393725747691</v>
+        <v>-1.54797034005221</v>
       </c>
       <c r="F13" s="9">
-        <v>-8.7222368312406697</v>
+        <v>-8.7222368312389094</v>
       </c>
       <c r="G13" s="4">
-        <v>-24.244234862084401</v>
+        <v>-24.2442348620853</v>
       </c>
       <c r="H13" s="4">
-        <v>-19.391256807750601</v>
+        <v>-19.391256807751699</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
